--- a/CashFlow/URI_cashflow.xlsx
+++ b/CashFlow/URI_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>351000000.0</v>
+        <v>109000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>455000000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>450000000.0</v>
+        <v>129000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>350000000.0</v>
+        <v>29000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>227000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>103000000.0</v>
+        <v>-8000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-14000000.0</v>
@@ -1014,22 +1014,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-44000000.0</v>
+        <v>1302000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>10000000.0</v>
+        <v>1807000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-299000000.0</v>
+        <v>1795000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-476000000.0</v>
+        <v>1300000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-266000000.0</v>
+        <v>1026000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-373000000.0</v>
+        <v>468000000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>41000000.0</v>
